--- a/Shinyapp/Data/school_locations.xlsx
+++ b/Shinyapp/Data/school_locations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nandinidas/Desktop/2022_DSPG_Loudoun/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nandinidas/Desktop/2022_DSPG_Loudoun/shinyapp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6321967B-B707-7C42-829B-CC26DCA0505E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37861221-B399-C34A-93AB-A38B86727A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{2DE02477-F050-8A47-B147-A7F0C5BFB2F7}"/>
   </bookViews>
@@ -35,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>School</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Address</t>
   </si>
@@ -104,13 +101,37 @@
   </si>
   <si>
     <t>Longitude</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>https://www.lcps.org/forestgrove</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.lcps.org/guilford </t>
+  </si>
+  <si>
+    <t>https://www.lcps.org/rollingridge</t>
+  </si>
+  <si>
+    <t>https://www.lcps.org/sterlinges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.lcps.org/sully </t>
+  </si>
+  <si>
+    <t>https://www.lcps.org/sugarland</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -139,6 +160,30 @@
       <charset val="1"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -157,16 +202,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -479,40 +532,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83AB6A0E-DB43-8F4B-9368-8E9D156565C1}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="D2" s="1">
         <v>39.009005999999999</v>
@@ -520,16 +576,19 @@
       <c r="E2" s="1">
         <v>-77.402915500000006</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="D3" s="3">
         <v>38.996525099999999</v>
@@ -537,16 +596,19 @@
       <c r="E3" s="3">
         <v>-77.398243500000007</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="D4" s="3">
         <v>38.994751999999998</v>
@@ -554,16 +616,19 @@
       <c r="E4" s="3">
         <v>-77.408112000000003</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="D5" s="3">
         <v>39.036763100000002</v>
@@ -571,16 +636,19 @@
       <c r="E5" s="3">
         <v>-77.382812299999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="D6" s="3">
         <v>39.015029499999997</v>
@@ -588,16 +656,19 @@
       <c r="E6" s="3">
         <v>-77.384221699999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="D7" s="3">
         <v>38.990546000000002</v>
@@ -605,8 +676,37 @@
       <c r="E7" s="3">
         <v>-77.399018999999996</v>
       </c>
+      <c r="F7" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J18" s="6"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F7" r:id="rId1" xr:uid="{21843B34-E2B0-374A-A994-BADE10589183}"/>
+    <hyperlink ref="F4" r:id="rId2" xr:uid="{3FEF4084-D4D9-DF46-8495-88F991DE0B4D}"/>
+    <hyperlink ref="F6" r:id="rId3" xr:uid="{80755019-7CE7-F24A-8B0E-FAC8F50082DD}"/>
+    <hyperlink ref="F2" r:id="rId4" xr:uid="{DC062BC0-EC40-0640-9EF0-FAA42780B58E}"/>
+    <hyperlink ref="F3" r:id="rId5" xr:uid="{D39237D0-6F9F-8647-A480-BF3691C86EA1}"/>
+    <hyperlink ref="F5" r:id="rId6" xr:uid="{9A995166-1552-5C47-BD60-EDD0C93E193A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>